--- a/comparisonFiles/Data SciLab/Simulacion/DataSimSciLab.xlsx
+++ b/comparisonFiles/Data SciLab/Simulacion/DataSimSciLab.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="43">
   <si>
     <t>Controlador</t>
   </si>
@@ -136,9 +136,6 @@
   </si>
   <si>
     <t>auto</t>
-  </si>
-  <si>
-    <t>auto(ode45)</t>
   </si>
   <si>
     <t>BDF-newt</t>
@@ -576,7 +573,7 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -636,7 +633,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>11</v>
@@ -665,7 +662,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>13</v>
@@ -694,7 +691,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>16</v>
@@ -709,7 +706,7 @@
         <v>2.2761865000000001</v>
       </c>
       <c r="J4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M4" s="18"/>
     </row>
@@ -756,7 +753,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>19</v>
@@ -783,7 +780,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>21</v>
@@ -799,7 +796,7 @@
         <v>3.6471898999999999</v>
       </c>
       <c r="J7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -816,7 +813,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>19</v>
@@ -874,7 +871,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>24</v>
@@ -904,7 +901,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>19</v>
@@ -961,7 +958,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>28</v>
@@ -991,7 +988,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>31</v>
@@ -1020,7 +1017,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>19</v>
@@ -1047,7 +1044,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>11</v>
@@ -1091,7 +1088,7 @@
         <v>2.7858963999999999</v>
       </c>
       <c r="J17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/comparisonFiles/Data SciLab/Simulacion/DataSimSciLab.xlsx
+++ b/comparisonFiles/Data SciLab/Simulacion/DataSimSciLab.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="42">
   <si>
     <t>Controlador</t>
   </si>
@@ -133,9 +133,6 @@
   </si>
   <si>
     <t>0.2,1,1</t>
-  </si>
-  <si>
-    <t>auto</t>
   </si>
   <si>
     <t>BDF-newt</t>
@@ -573,7 +570,7 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -633,7 +630,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>11</v>
@@ -662,7 +659,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>13</v>
@@ -691,7 +688,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>16</v>
@@ -706,7 +703,7 @@
         <v>2.2761865000000001</v>
       </c>
       <c r="J4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M4" s="18"/>
     </row>
@@ -753,7 +750,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>19</v>
@@ -780,7 +777,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>21</v>
@@ -796,7 +793,7 @@
         <v>3.6471898999999999</v>
       </c>
       <c r="J7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -813,7 +810,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>19</v>
@@ -871,7 +868,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>24</v>
@@ -901,7 +898,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>19</v>
@@ -958,7 +955,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>28</v>
@@ -988,7 +985,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>31</v>
@@ -1017,7 +1014,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>19</v>
@@ -1044,7 +1041,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>11</v>
@@ -1066,14 +1063,14 @@
       <c r="B17" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="14">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D17" s="14">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="E17" s="12" t="s">
         <v>38</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>39</v>
       </c>
       <c r="F17" s="13" t="s">
         <v>36</v>
@@ -1088,7 +1085,7 @@
         <v>2.7858963999999999</v>
       </c>
       <c r="J17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/comparisonFiles/Data SciLab/Simulacion/DataSimSciLab.xlsx
+++ b/comparisonFiles/Data SciLab/Simulacion/DataSimSciLab.xlsx
@@ -233,7 +233,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -250,14 +250,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -570,7 +564,7 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,7 +582,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -623,10 +617,10 @@
       <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="7">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D2" s="7">
+      <c r="C2" s="6">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D2" s="6">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -638,10 +632,10 @@
       <c r="G2" s="5">
         <v>1</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="7">
         <v>2.2592018999999999</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="7">
         <v>1.9329215</v>
       </c>
     </row>
@@ -652,10 +646,10 @@
       <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="7">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D3" s="7">
+      <c r="C3" s="6">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D3" s="6">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -664,13 +658,13 @@
       <c r="F3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="7">
         <v>2.007428</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="7">
         <v>1.9698441</v>
       </c>
     </row>
@@ -681,10 +675,10 @@
       <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="7">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D4" s="7">
+      <c r="C4" s="6">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D4" s="6">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -693,19 +687,19 @@
       <c r="F4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="7">
         <v>1.9066175000000001</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="7">
         <v>2.2761865000000001</v>
       </c>
       <c r="J4" t="s">
         <v>41</v>
       </c>
-      <c r="M4" s="18"/>
+      <c r="M4" s="16"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -714,10 +708,10 @@
       <c r="B5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="7" t="s">
+      <c r="C5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="4" t="s">
@@ -726,10 +720,10 @@
       <c r="F5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="6" t="s">
+      <c r="G5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I5" s="8" t="s">
@@ -743,10 +737,10 @@
       <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="7">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D6" s="7">
+      <c r="C6" s="6">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D6" s="6">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -755,8 +749,8 @@
       <c r="F6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="17">
+      <c r="G6" s="6"/>
+      <c r="H6" s="15">
         <v>11.334144</v>
       </c>
       <c r="I6" s="8" t="s">
@@ -770,10 +764,10 @@
       <c r="B7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="7">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D7" s="7">
+      <c r="C7" s="6">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D7" s="6">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="E7" s="4" t="s">
@@ -782,14 +776,14 @@
       <c r="F7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="7">
         <f>3.3055136*10/3</f>
         <v>11.018378666666665</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="7">
         <v>3.6471898999999999</v>
       </c>
       <c r="J7" t="s">
@@ -803,10 +797,10 @@
       <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="7">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D8" s="7">
+      <c r="C8" s="6">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D8" s="6">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="E8" s="4" t="s">
@@ -815,15 +809,15 @@
       <c r="F8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="9">
+      <c r="G8" s="6"/>
+      <c r="H8" s="7">
         <f>1.7915463*10/3</f>
         <v>5.9718209999999994</v>
       </c>
-      <c r="I8" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="K8" s="9"/>
+      <c r="I8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="7"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -832,10 +826,10 @@
       <c r="B9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="7" t="s">
+      <c r="C9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="4" t="s">
@@ -844,13 +838,13 @@
       <c r="F9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" s="10" t="s">
+      <c r="G9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="8" t="s">
         <v>19</v>
       </c>
     </row>
@@ -861,10 +855,10 @@
       <c r="B10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="7">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D10" s="7">
+      <c r="C10" s="6">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D10" s="6">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="E10" s="4" t="s">
@@ -873,14 +867,14 @@
       <c r="F10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="7">
         <f>3.2475702*10/3</f>
         <v>10.825234</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="7">
         <v>2.7561947999999998</v>
       </c>
     </row>
@@ -891,10 +885,10 @@
       <c r="B11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="7">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D11" s="7">
+      <c r="C11" s="6">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D11" s="6">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="E11" s="4" t="s">
@@ -903,12 +897,12 @@
       <c r="F11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="9">
+      <c r="G11" s="6"/>
+      <c r="H11" s="7">
         <f>1.8532032*10/3</f>
         <v>6.1773440000000006</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="8" t="s">
         <v>19</v>
       </c>
     </row>
@@ -919,10 +913,10 @@
       <c r="B12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="7" t="s">
+      <c r="C12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E12" s="4" t="s">
@@ -931,13 +925,13 @@
       <c r="F12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12" s="10" t="s">
+      <c r="G12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="8" t="s">
         <v>19</v>
       </c>
     </row>
@@ -948,10 +942,10 @@
       <c r="B13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="7">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D13" s="7">
+      <c r="C13" s="6">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D13" s="6">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="E13" s="4" t="s">
@@ -960,14 +954,14 @@
       <c r="F13" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="7">
         <f>3.754023*10/3</f>
         <v>12.51341</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="7">
         <v>3.0125508000000001</v>
       </c>
     </row>
@@ -978,10 +972,10 @@
       <c r="B14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="7">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D14" s="7">
+      <c r="C14" s="6">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D14" s="6">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="E14" s="4" t="s">
@@ -990,13 +984,13 @@
       <c r="F14" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="7">
         <v>9.5559151999999994</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="7">
         <v>2.8774172</v>
       </c>
     </row>
@@ -1007,10 +1001,10 @@
       <c r="B15" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="7">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D15" s="7">
+      <c r="C15" s="6">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D15" s="6">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="E15" s="4" t="s">
@@ -1019,11 +1013,11 @@
       <c r="F15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="9">
+      <c r="G15" s="6"/>
+      <c r="H15" s="7">
         <v>8.3434358</v>
       </c>
-      <c r="I15" s="10" t="s">
+      <c r="I15" s="8" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1034,10 +1028,10 @@
       <c r="B16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="7">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D16" s="7">
+      <c r="C16" s="6">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D16" s="6">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="E16" s="4" t="s">
@@ -1046,42 +1040,42 @@
       <c r="F16" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="7">
         <v>7.4861215999999997</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I16" s="7">
         <v>3.1363428999999998</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="14">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D17" s="14">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="E17" s="12" t="s">
+      <c r="C17" s="12">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D17" s="12">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="E17" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G17" s="14" t="s">
+      <c r="G17" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="H17" s="15">
+      <c r="H17" s="13">
         <v>3.9589645</v>
       </c>
-      <c r="I17" s="15">
+      <c r="I17" s="13">
         <v>2.7858963999999999</v>
       </c>
       <c r="J17" t="s">

--- a/comparisonFiles/Data SciLab/Simulacion/DataSimSciLab.xlsx
+++ b/comparisonFiles/Data SciLab/Simulacion/DataSimSciLab.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="41">
   <si>
     <t>Controlador</t>
   </si>
@@ -139,9 +139,6 @@
   </si>
   <si>
     <t>Lsodar</t>
-  </si>
-  <si>
-    <t>mala</t>
   </si>
   <si>
     <t>LoopAlg pero bien</t>
@@ -564,7 +561,7 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -636,7 +633,7 @@
         <v>2.2592018999999999</v>
       </c>
       <c r="I2" s="7">
-        <v>1.9329215</v>
+        <v>1.8541993999999999</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -665,7 +662,7 @@
         <v>2.007428</v>
       </c>
       <c r="I3" s="7">
-        <v>1.9698441</v>
+        <v>2.0832563999999998</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -694,10 +691,10 @@
         <v>1.9066175000000001</v>
       </c>
       <c r="I4" s="7">
-        <v>2.2761865000000001</v>
+        <v>2.0191528999999999</v>
       </c>
       <c r="J4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M4" s="16"/>
     </row>
@@ -784,10 +781,7 @@
         <v>11.018378666666665</v>
       </c>
       <c r="I7" s="7">
-        <v>3.6471898999999999</v>
-      </c>
-      <c r="J7" t="s">
-        <v>40</v>
+        <v>4.0159577000000004</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -875,7 +869,7 @@
         <v>10.825234</v>
       </c>
       <c r="I10" s="7">
-        <v>2.7561947999999998</v>
+        <v>2.9229202000000001</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -962,7 +956,7 @@
         <v>12.51341</v>
       </c>
       <c r="I13" s="7">
-        <v>3.0125508000000001</v>
+        <v>3.0300665000000002</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -991,7 +985,7 @@
         <v>9.5559151999999994</v>
       </c>
       <c r="I14" s="7">
-        <v>2.8774172</v>
+        <v>2.9970636000000002</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -1047,10 +1041,10 @@
         <v>7.4861215999999997</v>
       </c>
       <c r="I16" s="7">
-        <v>3.1363428999999998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>3.1124489</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>35</v>
       </c>
@@ -1076,10 +1070,7 @@
         <v>3.9589645</v>
       </c>
       <c r="I17" s="13">
-        <v>2.7858963999999999</v>
-      </c>
-      <c r="J17" t="s">
-        <v>40</v>
+        <v>2.7545639</v>
       </c>
     </row>
   </sheetData>
